--- a/result/semiannual/semiannual_return.xlsx
+++ b/result/semiannual/semiannual_return.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>2603</t>
-  </si>
-  <si>
-    <t>2607</t>
-  </si>
-  <si>
-    <t>2608</t>
-  </si>
-  <si>
-    <t>2642</t>
-  </si>
-  <si>
-    <t>5607</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,757 +420,1279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2607</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2642</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-0.1063103508566215</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003796490182458001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01246429968575331</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06266103546793556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03470218542236001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.003643087978268245</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.003112903308222315</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.01382664250317633</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01184211739438581</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>0.02804359520427606</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.006684999556360927</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01827781493075224</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01595265693795082</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.005797686014235914</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.02777948994107312</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.07957608043189546</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05278829298200197</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.02734373286611547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>0.02590235064567163</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02244047905732138</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03252175251442265</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02851711219819449</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.05082064648104782</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03369640380819416</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.008369144797376826</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.09397374988653628</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.004075879612954599</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="n">
+        <v>-0.240397304628489</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1205235894046895</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.04835154301823204</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2965034072417709</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.07498614511316637</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.1143983996828443</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.1705813186089748</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.05734133840494512</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.02173889505550678</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="B6" t="n">
+        <v>-0.173753803669511</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.02595908823487214</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.007878747149110263</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1901696357990015</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05328408550336457</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.04080698562921473</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.005200629944559276</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001262632301409624</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.02973368752774697</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01099299463196624</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.005525367886150138</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.001492865600669487</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01172756839517697</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0006246103500399484</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02645806484598127</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.02539336150891162</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.01513201663825595</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.01615093902759816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03389582766529779</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005931824183783722</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.0117591448872861</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0423773804878879</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02927488419748118</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04802344714504588</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.02749035857667044</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.03011167145924694</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.01002875341367471</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.03108282136740585</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.01021340520300222</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.005427888110424088</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.003961703222318628</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01642302214312756</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.02707300334597148</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.0158498719318881</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.01510303898677049</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.0143267153026736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02459232570930466</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.001869178470023325</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01118699392519</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.004415269241162682</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.01076695238124244</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.003268078564729363</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02706715224790586</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.01364183773838668</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01788696496828971</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03658781847400353</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00795257883994438</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.007011868986781226</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03899631557998669</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.03361355116134579</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.001380841922351106</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03109765926340202</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.006725215920594533</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0006961093930624903</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.006904340275716144</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0005963035579806449</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.01052509931045383</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02466233465592153</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04422398430076435</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.01660761461321088</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.008678142605188363</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.04576425558865586</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.01047604126177208</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.04152646507590759</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.008131694028238693</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03434630222002196</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.1463333031468067</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.002141357079641507</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.004831256145542066</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.0260753628025896</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02038605363406372</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01643874285924873</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.007261874715606724</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.01857095586015286</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.005352141852853117</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04471066443244657</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>-0.1063103508566215</v>
-      </c>
-      <c r="C2">
-        <v>0.003796490182458001</v>
-      </c>
-      <c r="D2">
-        <v>0.01246429968575331</v>
-      </c>
-      <c r="E2">
-        <v>0.003112903308222315</v>
-      </c>
-      <c r="F2">
-        <v>-0.01382664250317633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.02804359520427606</v>
-      </c>
-      <c r="C3">
-        <v>-0.006684999556360927</v>
-      </c>
-      <c r="D3">
-        <v>0.01827781493075224</v>
-      </c>
-      <c r="E3">
-        <v>0.07957608043189546</v>
-      </c>
-      <c r="F3">
-        <v>0.05278829298200197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.02590235064567163</v>
-      </c>
-      <c r="C4">
-        <v>0.02244047905732138</v>
-      </c>
-      <c r="D4">
-        <v>0.03252175251442265</v>
-      </c>
-      <c r="E4">
-        <v>0.008369144797376826</v>
-      </c>
-      <c r="F4">
-        <v>-0.09397374988653628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-0.240397304628489</v>
-      </c>
-      <c r="C5">
-        <v>-0.1205235894046895</v>
-      </c>
-      <c r="D5">
-        <v>-0.04835154301823204</v>
-      </c>
-      <c r="E5">
-        <v>-0.1705813186089748</v>
-      </c>
-      <c r="F5">
-        <v>-0.05734133840494512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-0.173753803669511</v>
-      </c>
-      <c r="C6">
-        <v>-0.02595908823487214</v>
-      </c>
-      <c r="D6">
-        <v>-0.007878747149110263</v>
-      </c>
-      <c r="E6">
-        <v>0.005200629944559276</v>
-      </c>
-      <c r="F6">
-        <v>0.001262632301409624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.01099299463196624</v>
-      </c>
-      <c r="C7">
-        <v>0.005525367886150138</v>
-      </c>
-      <c r="D7">
-        <v>-0.001492865600669487</v>
-      </c>
-      <c r="E7">
-        <v>-0.02539336150891162</v>
-      </c>
-      <c r="F7">
-        <v>-0.01513201663825595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.03389582766529779</v>
-      </c>
-      <c r="C8">
-        <v>0.005931824183783722</v>
-      </c>
-      <c r="D8">
-        <v>-0.0117591448872861</v>
-      </c>
-      <c r="E8">
-        <v>-0.02749035857667044</v>
-      </c>
-      <c r="F8">
-        <v>-0.03011167145924694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-0.03108282136740585</v>
-      </c>
-      <c r="C9">
-        <v>-0.01021340520300222</v>
-      </c>
-      <c r="D9">
-        <v>0.005427888110424088</v>
-      </c>
-      <c r="E9">
-        <v>-0.0158498719318881</v>
-      </c>
-      <c r="F9">
-        <v>-0.01510303898677049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.02459232570930466</v>
-      </c>
-      <c r="C10">
-        <v>-0.001869178470023325</v>
-      </c>
-      <c r="D10">
-        <v>0.01118699392519</v>
-      </c>
-      <c r="E10">
-        <v>0.02706715224790586</v>
-      </c>
-      <c r="F10">
-        <v>-0.01364183773838668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.03658781847400353</v>
-      </c>
-      <c r="C11">
-        <v>0.00795257883994438</v>
-      </c>
-      <c r="D11">
-        <v>-0.007011868986781226</v>
-      </c>
-      <c r="E11">
-        <v>0.03109765926340202</v>
-      </c>
-      <c r="F11">
-        <v>0.006725215920594533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-0.006904340275716144</v>
-      </c>
-      <c r="C12">
-        <v>0.0005963035579806449</v>
-      </c>
-      <c r="D12">
-        <v>-0.01052509931045383</v>
-      </c>
-      <c r="E12">
-        <v>-0.008678142605188363</v>
-      </c>
-      <c r="F12">
-        <v>-0.04576425558865586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-0.04152646507590759</v>
-      </c>
-      <c r="C13">
-        <v>0.008131694028238693</v>
-      </c>
-      <c r="D13">
-        <v>0.03434630222002196</v>
-      </c>
-      <c r="E13">
-        <v>-0.0260753628025896</v>
-      </c>
-      <c r="F13">
-        <v>0.02038605363406372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-0.007261874715606724</v>
-      </c>
-      <c r="C14">
-        <v>-0.01857095586015286</v>
-      </c>
-      <c r="D14">
-        <v>-0.005352141852853117</v>
-      </c>
-      <c r="E14">
+      <c r="G14" t="n">
+        <v>-0.03497326428130779</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.01292637239097908</v>
       </c>
-      <c r="F14">
+      <c r="I14" t="n">
         <v>-0.0173165991696919</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
+      <c r="J14" t="n">
+        <v>-0.008384488945579527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>-0.00203668522246255</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>-0.0006349214027779512</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>-0.02331308321403358</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
+        <v>0.02036355229519993</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.03141800910857554</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.01903502182246812</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.00123916308125301</v>
       </c>
-      <c r="F15">
+      <c r="I15" t="n">
         <v>0.01174194349176857</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="J15" t="n">
+        <v>-0.01634347144530945</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0.03609409670269459</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.01634703072522255</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>-0.01446128043020164</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
+        <v>0.04545674874226361</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03556744197539056</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05607870610353549</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.01756008594297105</v>
       </c>
-      <c r="F16">
+      <c r="I16" t="n">
         <v>-0.001137660845066613</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
+      <c r="J16" t="n">
+        <v>0.01031685605040344</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0.06517673781760262</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.04027604167608315</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.02443391236531249</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
+        <v>0.07385809032375985</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02061611890773851</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.02881180119742581</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.08057573782830978</v>
       </c>
-      <c r="F17">
+      <c r="I17" t="n">
         <v>0.05778229844879183</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="J17" t="n">
+        <v>0.01288636146472625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>-0.04257807541135428</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.01095444561672173</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.001257867605897189</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
+        <v>-0.05026416293679533</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.07398856482266014</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.004633314712932712</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.001194748246435395</v>
       </c>
-      <c r="F18">
+      <c r="I18" t="n">
         <v>0.01540742208700019</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+      <c r="J18" t="n">
+        <v>-0.0008220131566269254</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>0.004267658484195191</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0.005833928928888972</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.01130376605646018</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
+        <v>0.008448852385919636</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.007195361977534824</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01820817489958644</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.04503048543088147</v>
       </c>
-      <c r="F19">
+      <c r="I19" t="n">
         <v>0.01811105063205432</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+      <c r="J19" t="n">
+        <v>-0.01601072342832399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>-0.009636595148137713</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>-0.01012969937699156</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>-0.02388016793172576</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
+        <v>-0.005148414503223083</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.006897536027142381</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.03146847870561742</v>
+      </c>
+      <c r="H20" t="n">
         <v>-0.1064313660515851</v>
       </c>
-      <c r="F20">
+      <c r="I20" t="n">
         <v>-0.03151283279176731</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
+      <c r="J20" t="n">
+        <v>-0.007134846921295808</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0.01651515044070513</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.003018624990507683</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0.03880437533843787</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
+        <v>0.01853760585170409</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02569177997120968</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03038692613232574</v>
+      </c>
+      <c r="H21" t="n">
         <v>-0.0203696054540415</v>
       </c>
-      <c r="F21">
+      <c r="I21" t="n">
         <v>0.001587313585209286</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
+      <c r="J21" t="n">
+        <v>-0.005387958150322151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>-0.01951823469115155</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>-0.03038692613232574</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>-0.03435966749141098</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
+        <v>-0.0245262740560479</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.005894523972881816</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0188186842369645</v>
+      </c>
+      <c r="H22" t="n">
         <v>-0.01005033585350157</v>
       </c>
-      <c r="F22">
+      <c r="I22" t="n">
         <v>-0.02602122595052177</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
+      <c r="J22" t="n">
+        <v>-0.01278206500208956</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>0.0005042868194228648</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>-0.001545606130888203</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>-0.02708648824962911</v>
       </c>
-      <c r="F23">
+      <c r="E23" t="n">
+        <v>0.009225015847194115</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01769336597139841</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03115451121630105</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
         <v>-0.004207797122463959</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="J23" t="n">
+        <v>0.005559012522172206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>0.02946123158734311</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.0723397467587034</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.009526402306658133</v>
       </c>
-      <c r="F24">
+      <c r="E24" t="n">
+        <v>0.05790021785890054</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.03158167437876121</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02795082916852102</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
         <v>0.08207941418296565</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
+      <c r="J24" t="n">
+        <v>0.02328474957304956</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>0.07242886537770588</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.01413820879164218</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>-0.02835260851907521</v>
       </c>
-      <c r="F25">
+      <c r="E25" t="n">
+        <v>0.0775394752346803</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.04720129867614328</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0514878635109195</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
         <v>0.0149353597816145</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
+      <c r="J25" t="n">
+        <v>0.009393215211638939</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>-0.04134018382265614</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>-0.01346886384916054</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>-0.0345399163436367</v>
       </c>
-      <c r="F26">
+      <c r="E26" t="n">
+        <v>-0.05750687822438572</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.04327954910777761</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.008298444083835991</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>-0.004559147241561146</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
+      <c r="J26" t="n">
+        <v>-0.02736367282060511</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>-0.04198580809885836</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.001992055587306899</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>-0.01839134286147755</v>
       </c>
-      <c r="F27">
+      <c r="E27" t="n">
+        <v>-0.0983665352179172</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0791109403919245</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02818997001531498</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
         <v>0.0008136712662181189</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
+      <c r="J27" t="n">
+        <v>-0.0026013872206061</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>0.01299359024495198</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.02307827904418421</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>-0.03424066236913478</v>
       </c>
-      <c r="F28">
+      <c r="E28" t="n">
+        <v>0.01588502996738754</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.02662898956360338</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01013957846681413</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>0.03783868084231701</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
+      <c r="J28" t="n">
+        <v>-0.0127507973475387</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>-0.06674626109952086</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>-0.1049478044404533</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>-0.06757751801802743</v>
       </c>
-      <c r="F29">
+      <c r="E29" t="n">
+        <v>-0.05748116469778175</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.06351557854781305</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.08250992190455249</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
         <v>-0.1016707228850013</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
+      <c r="J29" t="n">
+        <v>-0.08508486454834863</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.06674626109952086</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.05814627224645008</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0.08817984401255689</v>
       </c>
-      <c r="F30">
+      <c r="E30" t="n">
+        <v>0.126588748106636</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.08379459373937137</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.08232063549389797</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>0.05944582398978874</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
+      <c r="J30" t="n">
+        <v>0.08381669611162579</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.02899221785390638</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>-0.03548699954044528</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>-0.06000045567190123</v>
       </c>
-      <c r="F31">
+      <c r="E31" t="n">
+        <v>0.01012969937699156</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.06865279056494218</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.02160714314747174</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
         <v>-0.03038692613232582</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
+      <c r="J31" t="n">
+        <v>0.01139583236547252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>-0.01047654326964187</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.01994408395934818</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0.05870343226489205</v>
       </c>
-      <c r="F32">
+      <c r="E32" t="n">
+        <v>0.02922261758248131</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.003794201795502087</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0148429297949586</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>-0.02591415047339914</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
+      <c r="J32" t="n">
+        <v>0.03515434985846374</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>-0.03332087686870041</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>-0.02471995991941086</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0.02900680638441296</v>
       </c>
-      <c r="F33">
+      <c r="E33" t="n">
+        <v>-0.05628501931329311</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.002718929248587335</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.1263204026837822</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>-0.03163771374133706</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
+      <c r="J33" t="n">
+        <v>-0.0312448195435436</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>0.03219853817180973</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>-0.00793800816487574</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>-0.1158896269899607</v>
       </c>
-      <c r="F34">
+      <c r="E34" t="n">
+        <v>0.0216520223733682</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.01057672565287097</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.08070766432687974</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>-0.01787425505893288</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
+      <c r="J34" t="n">
+        <v>-0.02939726969643649</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>-0.01287189132266501</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>-0.03491954993374077</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>-0.06757751801802743</v>
       </c>
-      <c r="F35">
+      <c r="E35" t="n">
+        <v>-0.00212859427991452</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.002283140726360303</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.06570960918129587</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
         <v>0.001044935502265846</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
+      <c r="J35" t="n">
+        <v>0.001991795838575783</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>0.04111799970691251</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>-0.01167792710278618</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>0.01924018570188372</v>
       </c>
-      <c r="F36">
+      <c r="E36" t="n">
+        <v>0.04901470737736539</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02617698167245279</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02749126480965021</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
         <v>0.04924403548230597</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
+      <c r="J36" t="n">
+        <v>-0.005715219400334703</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>0.02414561153807619</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.03172562141520315</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>0.02815767705727105</v>
       </c>
-      <c r="F37">
+      <c r="E37" t="n">
+        <v>0.01756008594297105</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00571484557977205</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.01909442742759149</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
         <v>0.01124021346592211</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
+      <c r="J37" t="n">
+        <v>-0.00860867918456846</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>-0.0325944639239959</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>-0.04356079402240121</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>-0.03575291609907372</v>
       </c>
-      <c r="F38">
+      <c r="E38" t="n">
+        <v>-0.004072337556213723</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.007664185540303903</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.08322187405670929</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>0.01979145879605704</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
+      <c r="J38" t="n">
+        <v>-0.01676606064828009</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>0.05416297619924637</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.0479470120752968</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0.0507354167851651</v>
       </c>
-      <c r="F39">
+      <c r="E39" t="n">
+        <v>0.04422495773288163</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01318955342645397</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.04494392782485046</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>-0.03815864881832609</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
+      <c r="J39" t="n">
+        <v>0.02704045352291591</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>-0.04978176285077337</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>-0.03296266705073636</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>-0.06840195020918083</v>
       </c>
-      <c r="F40">
+      <c r="E40" t="n">
+        <v>-0.02728367547677335</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.06368507892090314</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.05239519450747077</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
         <v>-0.08423411785191807</v>
       </c>
+      <c r="J40" t="n">
+        <v>-0.01773078737493291</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>